--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dll1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dll1-Notch2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>10.34874566666667</v>
+        <v>8.324917666666666</v>
       </c>
       <c r="H2">
-        <v>31.046237</v>
+        <v>24.974753</v>
       </c>
       <c r="I2">
-        <v>0.614862320492409</v>
+        <v>0.8193616330571973</v>
       </c>
       <c r="J2">
-        <v>0.6148623204924089</v>
+        <v>0.8193616330571972</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N2">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O2">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P2">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q2">
-        <v>330.7489609370565</v>
+        <v>8.080079063117443</v>
       </c>
       <c r="R2">
-        <v>2976.740648433508</v>
+        <v>72.720711568057</v>
       </c>
       <c r="S2">
-        <v>0.240243048055427</v>
+        <v>0.01698907788187586</v>
       </c>
       <c r="T2">
-        <v>0.2402430480554269</v>
+        <v>0.01698907788187586</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>10.34874566666667</v>
+        <v>8.324917666666666</v>
       </c>
       <c r="H3">
-        <v>31.046237</v>
+        <v>24.974753</v>
       </c>
       <c r="I3">
-        <v>0.614862320492409</v>
+        <v>0.8193616330571973</v>
       </c>
       <c r="J3">
-        <v>0.6148623204924089</v>
+        <v>0.8193616330571972</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O3">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P3">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q3">
-        <v>272.66947523753</v>
+        <v>219.3455134255699</v>
       </c>
       <c r="R3">
-        <v>2454.02527713777</v>
+        <v>1974.10962083013</v>
       </c>
       <c r="S3">
-        <v>0.1980563919449602</v>
+        <v>0.4611932607982812</v>
       </c>
       <c r="T3">
-        <v>0.1980563919449601</v>
+        <v>0.4611932607982812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>10.34874566666667</v>
+        <v>8.324917666666666</v>
       </c>
       <c r="H4">
-        <v>31.046237</v>
+        <v>24.974753</v>
       </c>
       <c r="I4">
-        <v>0.614862320492409</v>
+        <v>0.8193616330571973</v>
       </c>
       <c r="J4">
-        <v>0.6148623204924089</v>
+        <v>0.8193616330571972</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N4">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O4">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P4">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q4">
-        <v>243.0787893155467</v>
+        <v>162.2663509127852</v>
       </c>
       <c r="R4">
-        <v>2187.70910383992</v>
+        <v>1460.397158215067</v>
       </c>
       <c r="S4">
-        <v>0.1765628804920218</v>
+        <v>0.3411792943770403</v>
       </c>
       <c r="T4">
-        <v>0.1765628804920217</v>
+        <v>0.3411792943770401</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.482251000000001</v>
+        <v>1.835330666666667</v>
       </c>
       <c r="H5">
-        <v>19.446753</v>
+        <v>5.505992</v>
       </c>
       <c r="I5">
-        <v>0.3851376795075911</v>
+        <v>0.1806383669428028</v>
       </c>
       <c r="J5">
-        <v>0.385137679507591</v>
+        <v>0.1806383669428027</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N5">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O5">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P5">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q5">
-        <v>207.1746520632947</v>
+        <v>1.781352979983111</v>
       </c>
       <c r="R5">
-        <v>1864.571868569652</v>
+        <v>16.032176819848</v>
       </c>
       <c r="S5">
-        <v>0.1504835260872684</v>
+        <v>0.003745451532793355</v>
       </c>
       <c r="T5">
-        <v>0.1504835260872684</v>
+        <v>0.003745451532793354</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.482251000000001</v>
+        <v>1.835330666666667</v>
       </c>
       <c r="H6">
-        <v>19.446753</v>
+        <v>5.505992</v>
       </c>
       <c r="I6">
-        <v>0.3851376795075911</v>
+        <v>0.1806383669428028</v>
       </c>
       <c r="J6">
-        <v>0.385137679507591</v>
+        <v>0.1806383669428027</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O6">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P6">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q6">
-        <v>170.79480310557</v>
+        <v>48.35742087847999</v>
       </c>
       <c r="R6">
-        <v>1537.15322795013</v>
+        <v>435.21678790632</v>
       </c>
       <c r="S6">
-        <v>0.1240586333933104</v>
+        <v>0.1016757364691154</v>
       </c>
       <c r="T6">
-        <v>0.1240586333933104</v>
+        <v>0.1016757364691154</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.482251000000001</v>
+        <v>1.835330666666667</v>
       </c>
       <c r="H7">
-        <v>19.446753</v>
+        <v>5.505992</v>
       </c>
       <c r="I7">
-        <v>0.3851376795075911</v>
+        <v>0.1806383669428028</v>
       </c>
       <c r="J7">
-        <v>0.385137679507591</v>
+        <v>0.1806383669428027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N7">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O7">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P7">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q7">
-        <v>152.25977870872</v>
+        <v>35.77361625938755</v>
       </c>
       <c r="R7">
-        <v>1370.33800837848</v>
+        <v>321.962546334488</v>
       </c>
       <c r="S7">
-        <v>0.1105955200270122</v>
+        <v>0.07521717894089398</v>
       </c>
       <c r="T7">
-        <v>0.1105955200270121</v>
+        <v>0.07521717894089396</v>
       </c>
     </row>
   </sheetData>
